--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Mrgprb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Mrgprb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Mrgprb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Cort</t>
-  </si>
-  <si>
-    <t>Mrgprb1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,10 +546,10 @@
         <v>1.444561</v>
       </c>
       <c r="I2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,90 +558,524 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2499753333333333</v>
+        <v>0.01213333333333333</v>
       </c>
       <c r="N2">
-        <v>0.749926</v>
+        <v>0.0364</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008242098510738843</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008242098510738842</v>
       </c>
       <c r="Q2">
-        <v>0.1203682058317778</v>
+        <v>0.005842446711111112</v>
       </c>
       <c r="R2">
-        <v>1.083313852486</v>
+        <v>0.05258202040000001</v>
       </c>
       <c r="S2">
-        <v>0.9529357361208413</v>
+        <v>0.006420590206306914</v>
       </c>
       <c r="T2">
-        <v>0.9529357361208413</v>
+        <v>0.006420590206306913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.4815203333333334</v>
+      </c>
+      <c r="H3">
+        <v>1.444561</v>
+      </c>
+      <c r="I3">
+        <v>0.7789994499509271</v>
+      </c>
+      <c r="J3">
+        <v>0.7789994499509271</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.393531666666667</v>
+      </c>
+      <c r="N3">
+        <v>4.180595</v>
+      </c>
+      <c r="O3">
+        <v>0.9466174676786334</v>
+      </c>
+      <c r="P3">
+        <v>0.9466174676786333</v>
+      </c>
+      <c r="Q3">
+        <v>0.671013832643889</v>
+      </c>
+      <c r="R3">
+        <v>6.039124493795001</v>
+      </c>
+      <c r="S3">
+        <v>0.7374144866355949</v>
+      </c>
+      <c r="T3">
+        <v>0.7374144866355948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.4815203333333334</v>
+      </c>
+      <c r="H4">
+        <v>1.444561</v>
+      </c>
+      <c r="I4">
+        <v>0.7789994499509271</v>
+      </c>
+      <c r="J4">
+        <v>0.7789994499509271</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.066452</v>
+      </c>
+      <c r="N4">
+        <v>0.199356</v>
+      </c>
+      <c r="O4">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="P4">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="Q4">
+        <v>0.03199798919066667</v>
+      </c>
+      <c r="R4">
+        <v>0.287981902716</v>
+      </c>
+      <c r="S4">
+        <v>0.0351643731090253</v>
+      </c>
+      <c r="T4">
+        <v>0.0351643731090253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.054895</v>
+      </c>
+      <c r="H5">
+        <v>0.164685</v>
+      </c>
+      <c r="I5">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="J5">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01213333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.0364</v>
+      </c>
+      <c r="O5">
+        <v>0.008242098510738843</v>
+      </c>
+      <c r="P5">
+        <v>0.008242098510738842</v>
+      </c>
+      <c r="Q5">
+        <v>0.0006660593333333334</v>
+      </c>
+      <c r="R5">
+        <v>0.005994534</v>
+      </c>
+      <c r="S5">
+        <v>0.000731969711300287</v>
+      </c>
+      <c r="T5">
+        <v>0.0007319697113002869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.054895</v>
+      </c>
+      <c r="H6">
+        <v>0.164685</v>
+      </c>
+      <c r="I6">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="J6">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.393531666666667</v>
+      </c>
+      <c r="N6">
+        <v>4.180595</v>
+      </c>
+      <c r="O6">
+        <v>0.9466174676786334</v>
+      </c>
+      <c r="P6">
+        <v>0.9466174676786333</v>
+      </c>
+      <c r="Q6">
+        <v>0.07649792084166668</v>
+      </c>
+      <c r="R6">
+        <v>0.688481287575</v>
+      </c>
+      <c r="S6">
+        <v>0.08406782734102812</v>
+      </c>
+      <c r="T6">
+        <v>0.08406782734102811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.054895</v>
+      </c>
+      <c r="H7">
+        <v>0.164685</v>
+      </c>
+      <c r="I7">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="J7">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.066452</v>
+      </c>
+      <c r="N7">
+        <v>0.199356</v>
+      </c>
+      <c r="O7">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="P7">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="Q7">
+        <v>0.00364788254</v>
+      </c>
+      <c r="R7">
+        <v>0.03283094286</v>
+      </c>
+      <c r="S7">
+        <v>0.004008861367197252</v>
+      </c>
+      <c r="T7">
+        <v>0.004008861367197252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.02378166666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.07134500000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.04706426387915874</v>
-      </c>
-      <c r="J3">
-        <v>0.04706426387915873</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.2499753333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.749926</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.005944830052222223</v>
-      </c>
-      <c r="R3">
-        <v>0.05350347047</v>
-      </c>
-      <c r="S3">
-        <v>0.04706426387915874</v>
-      </c>
-      <c r="T3">
-        <v>0.04706426387915873</v>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.245134</v>
+      </c>
+      <c r="I8">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J8">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01213333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.0364</v>
+      </c>
+      <c r="O8">
+        <v>0.008242098510738843</v>
+      </c>
+      <c r="P8">
+        <v>0.008242098510738842</v>
+      </c>
+      <c r="Q8">
+        <v>0.0009914308444444445</v>
+      </c>
+      <c r="R8">
+        <v>0.0089228776</v>
+      </c>
+      <c r="S8">
+        <v>0.001089538593131643</v>
+      </c>
+      <c r="T8">
+        <v>0.001089538593131642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.245134</v>
+      </c>
+      <c r="I9">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J9">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.393531666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.180595</v>
+      </c>
+      <c r="O9">
+        <v>0.9466174676786334</v>
+      </c>
+      <c r="P9">
+        <v>0.9466174676786333</v>
+      </c>
+      <c r="Q9">
+        <v>0.1138673305255556</v>
+      </c>
+      <c r="R9">
+        <v>1.02480597473</v>
+      </c>
+      <c r="S9">
+        <v>0.1251351537020104</v>
+      </c>
+      <c r="T9">
+        <v>0.1251351537020104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.245134</v>
+      </c>
+      <c r="I10">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J10">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.066452</v>
+      </c>
+      <c r="N10">
+        <v>0.199356</v>
+      </c>
+      <c r="O10">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="P10">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="Q10">
+        <v>0.005429881522666666</v>
+      </c>
+      <c r="R10">
+        <v>0.048868933704</v>
+      </c>
+      <c r="S10">
+        <v>0.005967199334405267</v>
+      </c>
+      <c r="T10">
+        <v>0.005967199334405268</v>
       </c>
     </row>
   </sheetData>
